--- a/forms/app/covid_symptoms.xlsx
+++ b/forms/app/covid_symptoms.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
   <si>
     <t>list_name</t>
   </si>
@@ -379,9 +379,6 @@
     <t>n_town</t>
   </si>
   <si>
-    <t>"person"</t>
-  </si>
-  <si>
     <t>${outbreak_case_id}!=''</t>
   </si>
   <si>
@@ -421,104 +418,26 @@
     <t>Town: **${contact_town}**</t>
   </si>
   <si>
-    <t>danger_signs</t>
-  </si>
-  <si>
-    <t>Danger Sign Check</t>
-  </si>
-  <si>
-    <t>danger_signs_note</t>
-  </si>
-  <si>
-    <t>danger_signs_question_note</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>congratulate_no_ds_note</t>
+    <t>covid_symptoms</t>
   </si>
   <si>
-    <t>Great news! Please closely monitor her until her next scheduled pregnancy visit.</t>
+    <t>COVID Symptoms Check</t>
   </si>
   <si>
-    <t>refer_patient_note_1</t>
+    <t>symptoms_question_note</t>
   </si>
   <si>
-    <t>&lt;span style="color:red"&gt;Please refer to the health facility immediately. Accompany her if possible.&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>refer_patient_note_2</t>
-  </si>
-  <si>
-    <t>&lt;span style="color:red"&gt;Please complete the follow-up task within 3 days.&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>bp</t>
-  </si>
-  <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
-    <t>diabetes</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
-  </si>
-  <si>
-    <t>cardiac</t>
-  </si>
-  <si>
-    <t>Cardiac conditions</t>
-  </si>
-  <si>
-    <t>hiv</t>
-  </si>
-  <si>
-    <t>Human Immuno Virus</t>
-  </si>
-  <si>
-    <t>copd</t>
-  </si>
-  <si>
-    <t>COPD</t>
-  </si>
-  <si>
-    <t>Chronic Kidney Disease</t>
-  </si>
-  <si>
-    <t>ckd</t>
-  </si>
-  <si>
-    <t>tumor</t>
-  </si>
-  <si>
-    <t>Tumor (without methast.)</t>
-  </si>
-  <si>
-    <t>metabolic</t>
-  </si>
-  <si>
-    <t>Metabolic/Endocrine cond.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurrent miscarriages </t>
-  </si>
-  <si>
-    <t>miscarriage</t>
-  </si>
-  <si>
-    <t>Ask ${contact_surname} to monitor these danger signs throughout home isolation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does ${contact_surname} currently have any of these danger signs/comorbidities? </t>
+    <t xml:space="preserve">Does ${contact_surname} currently have any of these COVID 19 symptoms? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -568,11 +487,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -707,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -825,11 +739,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1047,13 +960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN1036"/>
+  <dimension ref="A1:AN1032"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2149,7 +2062,7 @@
         <v>70</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -3155,14 +3068,14 @@
         <v>110</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
       <c r="F44" s="42"/>
       <c r="G44" s="40"/>
       <c r="H44" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
@@ -3204,14 +3117,14 @@
         <v>111</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
       <c r="G45" s="40"/>
       <c r="H45" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
@@ -3253,14 +3166,14 @@
         <v>112</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
       <c r="G46" s="40"/>
       <c r="H46" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
@@ -3302,14 +3215,14 @@
         <v>113</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
       <c r="G47" s="40"/>
       <c r="H47" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
@@ -3351,14 +3264,14 @@
         <v>114</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="42"/>
       <c r="E48" s="42"/>
       <c r="F48" s="42"/>
       <c r="G48" s="40"/>
       <c r="H48" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
@@ -3400,14 +3313,14 @@
         <v>115</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
       <c r="F49" s="42"/>
       <c r="G49" s="40"/>
       <c r="H49" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
@@ -3542,7 +3455,7 @@
         <v>132</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
@@ -3584,15 +3497,13 @@
     </row>
     <row r="53" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
-      <c r="B53" s="45" t="s">
-        <v>133</v>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46" t="s">
+        <v>31</v>
       </c>
-      <c r="C53" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="46"/>
       <c r="E53" s="46"/>
       <c r="F53" s="46"/>
       <c r="G53" s="46"/>
@@ -3632,14 +3543,10 @@
     </row>
     <row r="54" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>142</v>
-      </c>
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="46" t="s">
         <v>31</v>
       </c>
@@ -3682,14 +3589,10 @@
     </row>
     <row r="55" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
-      <c r="B55" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>144</v>
-      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="46" t="s">
         <v>31</v>
       </c>
@@ -3732,14 +3635,10 @@
     </row>
     <row r="56" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
-      <c r="B56" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>146</v>
-      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="46" t="s">
         <v>31</v>
       </c>
@@ -3782,14 +3681,10 @@
     </row>
     <row r="57" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
-      <c r="B57" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>148</v>
-      </c>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="46" t="s">
         <v>31</v>
       </c>
@@ -3832,14 +3727,10 @@
     </row>
     <row r="58" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
-      <c r="B58" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>150</v>
-      </c>
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="46" t="s">
         <v>31</v>
       </c>
@@ -3882,14 +3773,10 @@
     </row>
     <row r="59" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
-      <c r="B59" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>151</v>
-      </c>
+      <c r="B59" s="47"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="46" t="s">
         <v>31</v>
       </c>
@@ -3932,14 +3819,10 @@
     </row>
     <row r="60" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
-      <c r="B60" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>154</v>
-      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="48"/>
       <c r="D60" s="46" t="s">
         <v>31</v>
       </c>
@@ -3982,14 +3865,10 @@
     </row>
     <row r="61" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
-      <c r="B61" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>156</v>
-      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="46" t="s">
         <v>31</v>
       </c>
@@ -4030,121 +3909,54 @@
       <c r="AM61" s="40"/>
       <c r="AN61" s="40"/>
     </row>
-    <row r="62" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="45" t="s">
-        <v>134</v>
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="B62" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
-      <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-      <c r="AC62" s="40"/>
-      <c r="AD62" s="40"/>
-      <c r="AE62" s="40"/>
-      <c r="AF62" s="40"/>
-      <c r="AG62" s="40"/>
-      <c r="AH62" s="40"/>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="40"/>
-      <c r="AK62" s="40"/>
-      <c r="AL62" s="40"/>
-      <c r="AM62" s="40"/>
-      <c r="AN62" s="40"/>
     </row>
     <row r="63" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="40"/>
-      <c r="AB63" s="40"/>
-      <c r="AC63" s="40"/>
-      <c r="AD63" s="40"/>
-      <c r="AE63" s="40"/>
-      <c r="AF63" s="40"/>
-      <c r="AG63" s="40"/>
-      <c r="AH63" s="40"/>
-      <c r="AI63" s="40"/>
-      <c r="AJ63" s="40"/>
-      <c r="AK63" s="40"/>
-      <c r="AL63" s="40"/>
-      <c r="AM63" s="40"/>
-      <c r="AN63" s="40"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
     </row>
     <row r="64" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
@@ -4152,9 +3964,8 @@
       <c r="P64" s="22"/>
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
-      <c r="T64" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
       <c r="W64" s="22"/>
@@ -4164,41 +3975,28 @@
       <c r="AA64" s="22"/>
       <c r="AB64" s="22"/>
       <c r="AC64" s="22"/>
-      <c r="AE64" s="48" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="65" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
       <c r="K65" s="22"/>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
-      <c r="N65" s="22" t="s">
-        <v>116</v>
-      </c>
+      <c r="N65" s="22"/>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
-      <c r="T65" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="T65" s="22"/>
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
       <c r="W65" s="22"/>
@@ -4209,10 +4007,36 @@
       <c r="AB65" s="22"/>
       <c r="AC65" s="22"/>
     </row>
-    <row r="66" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>67</v>
-      </c>
+    <row r="66" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
@@ -34160,133 +33984,9 @@
       <c r="AB1032" s="22"/>
       <c r="AC1032" s="22"/>
     </row>
-    <row r="1033" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1033" s="22"/>
-      <c r="B1033" s="22"/>
-      <c r="C1033" s="22"/>
-      <c r="D1033" s="22"/>
-      <c r="E1033" s="22"/>
-      <c r="F1033" s="22"/>
-      <c r="G1033" s="22"/>
-      <c r="H1033" s="22"/>
-      <c r="I1033" s="22"/>
-      <c r="J1033" s="22"/>
-      <c r="K1033" s="22"/>
-      <c r="L1033" s="22"/>
-      <c r="M1033" s="22"/>
-      <c r="N1033" s="22"/>
-      <c r="O1033" s="22"/>
-      <c r="P1033" s="22"/>
-      <c r="Q1033" s="22"/>
-      <c r="R1033" s="22"/>
-      <c r="S1033" s="22"/>
-      <c r="T1033" s="22"/>
-      <c r="U1033" s="22"/>
-      <c r="V1033" s="22"/>
-      <c r="W1033" s="22"/>
-      <c r="X1033" s="22"/>
-      <c r="Y1033" s="22"/>
-      <c r="Z1033" s="22"/>
-      <c r="AA1033" s="22"/>
-      <c r="AB1033" s="22"/>
-      <c r="AC1033" s="22"/>
-    </row>
-    <row r="1034" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1034" s="22"/>
-      <c r="B1034" s="22"/>
-      <c r="C1034" s="22"/>
-      <c r="D1034" s="22"/>
-      <c r="E1034" s="22"/>
-      <c r="F1034" s="22"/>
-      <c r="G1034" s="22"/>
-      <c r="H1034" s="22"/>
-      <c r="I1034" s="22"/>
-      <c r="J1034" s="22"/>
-      <c r="K1034" s="22"/>
-      <c r="L1034" s="22"/>
-      <c r="M1034" s="22"/>
-      <c r="N1034" s="22"/>
-      <c r="O1034" s="22"/>
-      <c r="P1034" s="22"/>
-      <c r="Q1034" s="22"/>
-      <c r="R1034" s="22"/>
-      <c r="S1034" s="22"/>
-      <c r="T1034" s="22"/>
-      <c r="U1034" s="22"/>
-      <c r="V1034" s="22"/>
-      <c r="W1034" s="22"/>
-      <c r="X1034" s="22"/>
-      <c r="Y1034" s="22"/>
-      <c r="Z1034" s="22"/>
-      <c r="AA1034" s="22"/>
-      <c r="AB1034" s="22"/>
-      <c r="AC1034" s="22"/>
-    </row>
-    <row r="1035" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1035" s="22"/>
-      <c r="B1035" s="22"/>
-      <c r="C1035" s="22"/>
-      <c r="D1035" s="22"/>
-      <c r="E1035" s="22"/>
-      <c r="F1035" s="22"/>
-      <c r="G1035" s="22"/>
-      <c r="H1035" s="22"/>
-      <c r="I1035" s="22"/>
-      <c r="J1035" s="22"/>
-      <c r="K1035" s="22"/>
-      <c r="L1035" s="22"/>
-      <c r="M1035" s="22"/>
-      <c r="N1035" s="22"/>
-      <c r="O1035" s="22"/>
-      <c r="P1035" s="22"/>
-      <c r="Q1035" s="22"/>
-      <c r="R1035" s="22"/>
-      <c r="S1035" s="22"/>
-      <c r="T1035" s="22"/>
-      <c r="U1035" s="22"/>
-      <c r="V1035" s="22"/>
-      <c r="W1035" s="22"/>
-      <c r="X1035" s="22"/>
-      <c r="Y1035" s="22"/>
-      <c r="Z1035" s="22"/>
-      <c r="AA1035" s="22"/>
-      <c r="AB1035" s="22"/>
-      <c r="AC1035" s="22"/>
-    </row>
-    <row r="1036" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1036" s="22"/>
-      <c r="B1036" s="22"/>
-      <c r="C1036" s="22"/>
-      <c r="D1036" s="22"/>
-      <c r="E1036" s="22"/>
-      <c r="F1036" s="22"/>
-      <c r="G1036" s="22"/>
-      <c r="H1036" s="22"/>
-      <c r="I1036" s="22"/>
-      <c r="J1036" s="22"/>
-      <c r="K1036" s="22"/>
-      <c r="L1036" s="22"/>
-      <c r="M1036" s="22"/>
-      <c r="N1036" s="22"/>
-      <c r="O1036" s="22"/>
-      <c r="P1036" s="22"/>
-      <c r="Q1036" s="22"/>
-      <c r="R1036" s="22"/>
-      <c r="S1036" s="22"/>
-      <c r="T1036" s="22"/>
-      <c r="U1036" s="22"/>
-      <c r="V1036" s="22"/>
-      <c r="W1036" s="22"/>
-      <c r="X1036" s="22"/>
-      <c r="Y1036" s="22"/>
-      <c r="Z1036" s="22"/>
-      <c r="AA1036" s="22"/>
-      <c r="AB1036" s="22"/>
-      <c r="AC1036" s="22"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J51:J65">
+    <dataValidation type="list" allowBlank="1" sqref="J51:J61">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -40445,7 +40145,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-28 13-20</v>
+        <v>2020-12-28 13-26</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>42</v>

--- a/forms/app/covid_symptoms.xlsx
+++ b/forms/app/covid_symptoms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="174">
   <si>
     <t>list_name</t>
   </si>
@@ -1118,13 +1118,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4571,6 +4571,11 @@
       <c r="Z72" s="18"/>
       <c r="AA72" s="18"/>
     </row>
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="J51:J68 D70:E72">
@@ -10670,7 +10675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -10734,7 +10739,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-31 10-35</v>
+        <v>2020-12-31 12-13</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>

--- a/forms/app/covid_symptoms.xlsx
+++ b/forms/app/covid_symptoms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10675,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-12-31 12-13</v>
+        <v>2020-12-31 12-29</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>
